--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value549.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value549.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6393492017400373</v>
+        <v>1.518312692642212</v>
       </c>
       <c r="B1">
-        <v>0.704343373442993</v>
+        <v>1.761911392211914</v>
       </c>
       <c r="C1">
-        <v>0.8371996792551507</v>
+        <v>1.78416109085083</v>
       </c>
       <c r="D1">
-        <v>1.465445435824901</v>
+        <v>2.19510555267334</v>
       </c>
       <c r="E1">
-        <v>3.498240473944436</v>
+        <v>3.21607780456543</v>
       </c>
     </row>
   </sheetData>
